--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>530360.0913175751</v>
+        <v>527628.511855751</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>120.8681741800677</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.47678080241909</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>51.15326723663241</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>177.9498744325403</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>9.461970681989245</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>142.3407393867361</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>101.0648684641364</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7465858495626</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>301.0114760736408</v>
       </c>
       <c r="F8" t="n">
-        <v>104.8315376602612</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.84189334898342</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>3.775504328812113</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>37.41782514683927</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229322</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1819,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>219.4517041866519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>82.47290449300684</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>30.97191586387613</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>9.146142788179368</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>97.02629574295564</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>283.1919565264312</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.93966244919601</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>28.23631843387907</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>182.3203821379245</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>109.8058856274578</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E46" t="n">
-        <v>100.5858322992699</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1679.795701438247</v>
+        <v>1332.176479504134</v>
       </c>
       <c r="C2" t="n">
-        <v>1310.833184497836</v>
+        <v>1332.176479504134</v>
       </c>
       <c r="D2" t="n">
-        <v>952.5674858910851</v>
+        <v>1332.176479504134</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5674858910851</v>
+        <v>1332.176479504134</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>921.190574714526</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>503.2267666127128</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>176.0320466487157</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2676.465474046082</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2422.703688684173</v>
+        <v>2426.844457084596</v>
       </c>
       <c r="V2" t="n">
-        <v>2422.703688684173</v>
+        <v>2095.781569741025</v>
       </c>
       <c r="W2" t="n">
-        <v>2069.935033414059</v>
+        <v>2095.781569741025</v>
       </c>
       <c r="X2" t="n">
-        <v>2069.935033414059</v>
+        <v>1722.315811479945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1679.795701438247</v>
+        <v>1332.176479504134</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,10 +4413,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>63.50052796378793</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>63.50052796378793</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>63.50052796378793</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1370.766673031379</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="C5" t="n">
-        <v>1370.766673031379</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="D5" t="n">
-        <v>1370.766673031379</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>984.9784204331349</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>573.9925156435274</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>156.0287075417143</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>156.0287075417143</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071313</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.366513095501</v>
+        <v>1739.654191907093</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>327.5890571512475</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>327.5890571512475</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1218.332132399257</v>
+        <v>1544.334363014276</v>
       </c>
       <c r="C8" t="n">
-        <v>849.3696154588458</v>
+        <v>1544.334363014276</v>
       </c>
       <c r="D8" t="n">
-        <v>491.1039168520953</v>
+        <v>1186.068664407525</v>
       </c>
       <c r="E8" t="n">
-        <v>491.1039168520953</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="F8" t="n">
-        <v>385.2134747710234</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4832,22 +4832,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.071304439191</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.071304439191</v>
+        <v>1934.473694990087</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.071304439191</v>
+        <v>1934.473694990087</v>
       </c>
       <c r="Y8" t="n">
-        <v>1604.931972463379</v>
+        <v>1544.334363014276</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>478.5308710654409</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>982.8924109315594</v>
+        <v>744.5715932067358</v>
       </c>
       <c r="M9" t="n">
-        <v>1623.437760398664</v>
+        <v>1385.11694267384</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>2030.071016909819</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.3446039439485</v>
+        <v>506.2273579153282</v>
       </c>
       <c r="C10" t="n">
-        <v>325.3446039439485</v>
+        <v>506.2273579153282</v>
       </c>
       <c r="D10" t="n">
-        <v>325.3446039439485</v>
+        <v>356.1107185029925</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3446039439485</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="F10" t="n">
-        <v>178.4546564460382</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="G10" t="n">
-        <v>178.4546564460382</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>923.3997019991118</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="V10" t="n">
-        <v>923.3997019991118</v>
+        <v>510.040998651502</v>
       </c>
       <c r="W10" t="n">
-        <v>633.9825319621511</v>
+        <v>506.2273579153282</v>
       </c>
       <c r="X10" t="n">
-        <v>405.9929810641338</v>
+        <v>506.2273579153282</v>
       </c>
       <c r="Y10" t="n">
-        <v>405.9929810641338</v>
+        <v>506.2273579153282</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,16 +5127,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,16 +5355,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133963</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310032</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.776592304621</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,16 +5592,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
         <v>2129.438138565707</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327634</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2415.678320081396</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2232.8234857363</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2013.222020759241</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806533</v>
+        <v>952.055584962574</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630031</v>
+        <v>731.2630058190439</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,10 +6005,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6227,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6315,10 +6315,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>699.73118040114</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>699.73118040114</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1874.263433515775</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1619.578945309888</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1330.161775272927</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1102.17222437491</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>881.3796452313798</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>784.5811134804959</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>615.644930552589</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.852313429557</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.997479084462</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2027.396014107403</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1738.320787451601</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1483.636299245714</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1194.219129208753</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>966.2295783107356</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>966.2295783107356</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.6673633290469</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2043.199616443682</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1788.515128237795</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1499.097958200834</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1271.108407302817</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.315828159287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2269.002343845332</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2049.400878868273</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>240.7280987119431</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>450.8053864477923</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-8.013003602730812e-14</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22553,10 +22553,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>333.8026083664894</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31.06314206479354</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>195.9715395552387</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>84.77391660561912</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016454</v>
       </c>
       <c r="T13" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-2.945315721635453e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>111.1976478713731</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>6.257951202385243</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856647</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012282</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>84.773916605621</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>35.40333084624553</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>120.3791545843326</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>2.992517862812974</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>49.43558426092567</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>103.8640922513196</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>71.22040037418684</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E46" t="n">
-        <v>45.84813034729927</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631199</v>
+        <v>354580.0968631198</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
@@ -26320,40 +26320,40 @@
         <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="G2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="H2" t="n">
         <v>383394.6348527529</v>
       </c>
-      <c r="G2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>383394.6348527531</v>
+      </c>
+      <c r="J2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="K2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="M2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="J2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="K2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="L2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>383394.6348527528</v>
-      </c>
       <c r="N2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="O2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527531</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167367.5317503682</v>
+        <v>167367.5317503681</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682718</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="K4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="L4" t="n">
-        <v>5677.536566682752</v>
-      </c>
       <c r="M4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-485614.3921652022</v>
+        <v>-485800.7855537413</v>
       </c>
       <c r="C6" t="n">
         <v>97213.3471590917</v>
       </c>
       <c r="D6" t="n">
-        <v>-58590.45893470343</v>
+        <v>-58590.45893470335</v>
       </c>
       <c r="E6" t="n">
-        <v>-494458.1229186436</v>
+        <v>-494492.8608440791</v>
       </c>
       <c r="F6" t="n">
-        <v>276594.568462163</v>
+        <v>276559.8305367276</v>
       </c>
       <c r="G6" t="n">
-        <v>276594.5684621629</v>
+        <v>276559.8305367274</v>
       </c>
       <c r="H6" t="n">
-        <v>276594.5684621632</v>
+        <v>276559.8305367272</v>
       </c>
       <c r="I6" t="n">
-        <v>276594.5684621631</v>
+        <v>276559.8305367276</v>
       </c>
       <c r="J6" t="n">
-        <v>100171.34926957</v>
+        <v>100136.6113441346</v>
       </c>
       <c r="K6" t="n">
-        <v>276594.5684621629</v>
+        <v>276559.8305367274</v>
       </c>
       <c r="L6" t="n">
-        <v>276594.5684621629</v>
+        <v>276559.8305367273</v>
       </c>
       <c r="M6" t="n">
-        <v>152386.0577541044</v>
+        <v>152351.319828669</v>
       </c>
       <c r="N6" t="n">
-        <v>276594.5684621631</v>
+        <v>276559.8305367273</v>
       </c>
       <c r="O6" t="n">
-        <v>276594.568462163</v>
+        <v>276559.8305367273</v>
       </c>
       <c r="P6" t="n">
-        <v>276594.568462163</v>
+        <v>276559.8305367275</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>48.1277617057724</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>200.0709002716569</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>1.882105749397027</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>216.2476847070479</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>212.3423022339468</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>50.8664477807249</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>4.288519608521625</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>80.91889399862094</v>
       </c>
       <c r="F8" t="n">
-        <v>302.0445080814503</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.99008683295388</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,16 +28065,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>282.7474940077789</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>297.1808238847171</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34781,19 +34781,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>309.018825644627</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35261,7 +35261,7 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>651.4687618545244</v>
       </c>
       <c r="O9" t="n">
         <v>161.1235481502633</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103582</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
